--- a/tabla.xlsx
+++ b/tabla.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mis Documentos\~Proyectos~\Python\Complejidad\src\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Juan Sebaxtian\Desktop\ComplejidadyOptimizacion\ComplejidadyOptimizacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB6E52E5-218B-4E70-8A19-94715A6A9658}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7FCA7B3-4DAC-44BA-9379-21CE78229DEF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-109" yWindow="-109" windowWidth="26301" windowHeight="14889" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="datos" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,17 +30,6 @@
     <t xml:space="preserve">REGIÓN </t>
   </si>
   <si>
-    <t>ESTACIONES
-ACTUALES</t>
-  </si>
-  <si>
-    <t>PERSONAL
-REQUERIDO</t>
-  </si>
-  <si>
-    <t>Muertes</t>
-  </si>
-  <si>
     <t xml:space="preserve">Norte </t>
   </si>
   <si>
@@ -63,11 +52,20 @@
 (En cientos de miles)</t>
   </si>
   <si>
-    <t>COSTOS
+    <t xml:space="preserve">Norte Este </t>
+  </si>
+  <si>
+    <t>CONGELADORES DISPONIBLES</t>
+  </si>
+  <si>
+    <t>UNIDADES DE VACUNACION</t>
+  </si>
+  <si>
+    <t>COSTOS ADECUACION
 (En miles)</t>
   </si>
   <si>
-    <t xml:space="preserve">Norte Este </t>
+    <t>MUERTES</t>
   </si>
 </sst>
 </file>
@@ -429,182 +427,182 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.5546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.77734375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="20.88671875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="21" style="1" customWidth="1"/>
-    <col min="5" max="5" width="28.109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="30.5546875" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="20.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="30" style="1" customWidth="1"/>
+    <col min="3" max="3" width="44.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="33.875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="28.125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="30.625" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="40.75" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>10</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>2</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="14.95" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B2" s="2">
         <v>50</v>
       </c>
       <c r="C2" s="2">
-        <v>1000</v>
+        <v>2</v>
       </c>
       <c r="D2" s="2">
         <v>2</v>
       </c>
       <c r="E2" s="2">
-        <v>5000</v>
+        <v>80</v>
       </c>
       <c r="F2" s="2">
         <v>550</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="14.95" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B3" s="2">
         <v>25</v>
       </c>
       <c r="C3" s="2">
+        <v>3</v>
+      </c>
+      <c r="D3" s="2">
+        <v>1</v>
+      </c>
+      <c r="E3" s="2">
         <v>100</v>
-      </c>
-      <c r="D3" s="2">
-        <v>4</v>
-      </c>
-      <c r="E3" s="2">
-        <v>4000</v>
       </c>
       <c r="F3" s="2">
         <v>350</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B4" s="2">
         <v>90</v>
       </c>
       <c r="C4" s="2">
-        <v>3000</v>
+        <v>4</v>
       </c>
       <c r="D4" s="2">
         <v>1</v>
       </c>
       <c r="E4" s="2">
-        <v>4000</v>
+        <v>70</v>
       </c>
       <c r="F4" s="2">
         <v>2600</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B5" s="2">
         <v>40</v>
       </c>
       <c r="C5" s="2">
-        <v>500</v>
+        <v>2</v>
       </c>
       <c r="D5" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E5" s="2">
-        <v>1500</v>
+        <v>110</v>
       </c>
       <c r="F5" s="2">
         <v>1000</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B6" s="2">
         <v>35</v>
       </c>
       <c r="C6" s="2">
-        <v>700</v>
+        <v>3</v>
       </c>
       <c r="D6" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E6" s="2">
-        <v>5000</v>
+        <v>95</v>
       </c>
       <c r="F6" s="2">
         <v>300</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B7" s="2">
         <v>22</v>
       </c>
       <c r="C7" s="2">
-        <v>80</v>
+        <v>2</v>
       </c>
       <c r="D7" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E7" s="2">
-        <v>3500</v>
+        <v>90</v>
       </c>
       <c r="F7" s="2">
         <v>250</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B8" s="2">
         <v>30</v>
       </c>
       <c r="C8" s="2">
-        <v>60</v>
+        <v>5</v>
       </c>
       <c r="D8" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E8" s="2">
-        <v>4500</v>
+        <v>120</v>
       </c>
       <c r="F8" s="2">
         <v>300</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
